--- a/group/BB（商品管理システム）/BB（商品管理システム）/BBショップ.xlsx
+++ b/group/BB（商品管理システム）/BB（商品管理システム）/BBショップ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_hayashi\Desktop\develop\ohara_uml\group\BB（商品管理システム）\BB（商品管理システム）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4A87E5-31B2-41E2-BBD7-143E88480AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAC7D19-5CB1-40F9-85D1-27317AEDB5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B1924E8-1464-41A2-99C9-D1E63BF7D771}"/>
+    <workbookView xWindow="0" yWindow="288" windowWidth="17280" windowHeight="8880" xr2:uid="{1B1924E8-1464-41A2-99C9-D1E63BF7D771}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,274 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92482</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0703723-BE3E-8C00-6E73-E5F5276FA8AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="7468642" cy="8031480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>651510</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D64033-7EE9-EA63-9413-D610BBA6BE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2663190" y="5920740"/>
+          <a:ext cx="887730" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バッヂ機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>286822</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>189157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57CE607-02A4-7BB7-3A7A-AF9ED6803C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8702040" y="274320"/>
+          <a:ext cx="7678222" cy="4029637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DBAE8A-725F-385F-A2E2-8D698B80C91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6560820" y="10454640"/>
+          <a:ext cx="4572000" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>101541</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>143405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60ACFDE7-E2EA-2731-49A1-6C6F2833E266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="8458200"/>
+          <a:ext cx="4124901" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,11 +684,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE132D3D-E177-4646-A8E8-CBFC7A2A5DBF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>